--- a/Part 2 Syncronization/1_PSS SSS Occupancy/FR2_RE_Count.xlsx
+++ b/Part 2 Syncronization/1_PSS SSS Occupancy/FR2_RE_Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e866b2b393b88c91/Code/99 - Project/5G-NR-Planning-And-Dimensioning/Part 2 Syncronization/1_PSS SSS Occupancy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_FFC65FC0FEA12BED90160BE413FE3C6364DED51C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3EBC032E-CF2B-488B-A19B-5B82A663082B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_FFC65FC0FEA12BED90160BE413FE3C6364DED51C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3372A5B6-ED47-43FB-A6D3-226D37160934}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>FR</t>
   </si>
@@ -46,19 +46,10 @@
     <t>Normal CP Symbol/Frame</t>
   </si>
   <si>
-    <t>Extended CP Symbol/Frame</t>
-  </si>
-  <si>
     <t>Normal CP RE/Frame/RB</t>
   </si>
   <si>
-    <t>Extended CP RE/Frame/RB</t>
-  </si>
-  <si>
     <t>Normal CP RE/Frame</t>
-  </si>
-  <si>
-    <t>Extended CP RE/Frame</t>
   </si>
   <si>
     <t>No</t>
@@ -487,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N1" activeCellId="2" sqref="J1:J1048576 L1:L1048576 N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,16 +494,13 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -544,22 +532,13 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -571,7 +550,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -583,27 +562,18 @@
         <v>560</v>
       </c>
       <c r="J2">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K2">
-        <v>6720</v>
-      </c>
-      <c r="L2">
-        <v>5760</v>
-      </c>
-      <c r="M2">
         <v>443520</v>
       </c>
-      <c r="N2">
-        <v>380160</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>60</v>
@@ -615,7 +585,7 @@
         <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -627,27 +597,18 @@
         <v>560</v>
       </c>
       <c r="J3">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K3">
-        <v>6720</v>
-      </c>
-      <c r="L3">
-        <v>5760</v>
-      </c>
-      <c r="M3">
         <v>887040</v>
       </c>
-      <c r="N3">
-        <v>760320</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -659,7 +620,7 @@
         <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -671,27 +632,18 @@
         <v>560</v>
       </c>
       <c r="J4">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K4">
-        <v>6720</v>
-      </c>
-      <c r="L4">
-        <v>5760</v>
-      </c>
-      <c r="M4">
         <v>1774080</v>
       </c>
-      <c r="N4">
-        <v>1520640</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>120</v>
@@ -703,7 +655,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -715,27 +667,18 @@
         <v>1120</v>
       </c>
       <c r="J5">
-        <v>960</v>
+        <v>13440</v>
       </c>
       <c r="K5">
-        <v>13440</v>
-      </c>
-      <c r="L5">
-        <v>11520</v>
-      </c>
-      <c r="M5">
         <v>430080</v>
       </c>
-      <c r="N5">
-        <v>368640</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>120</v>
@@ -747,7 +690,7 @@
         <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -759,27 +702,18 @@
         <v>1120</v>
       </c>
       <c r="J6">
-        <v>960</v>
+        <v>13440</v>
       </c>
       <c r="K6">
-        <v>13440</v>
-      </c>
-      <c r="L6">
-        <v>11520</v>
-      </c>
-      <c r="M6">
         <v>887040</v>
       </c>
-      <c r="N6">
-        <v>760320</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>120</v>
@@ -791,7 +725,7 @@
         <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -803,27 +737,18 @@
         <v>1120</v>
       </c>
       <c r="J7">
-        <v>960</v>
+        <v>13440</v>
       </c>
       <c r="K7">
-        <v>13440</v>
-      </c>
-      <c r="L7">
-        <v>11520</v>
-      </c>
-      <c r="M7">
         <v>1774080</v>
       </c>
-      <c r="N7">
-        <v>1520640</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>120</v>
@@ -835,7 +760,7 @@
         <v>264</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -847,19 +772,10 @@
         <v>1120</v>
       </c>
       <c r="J8">
-        <v>960</v>
+        <v>13440</v>
       </c>
       <c r="K8">
-        <v>13440</v>
-      </c>
-      <c r="L8">
-        <v>11520</v>
-      </c>
-      <c r="M8">
         <v>3548160</v>
-      </c>
-      <c r="N8">
-        <v>3041280</v>
       </c>
     </row>
   </sheetData>
